--- a/December/Others/Allocation Sheet.xlsx
+++ b/December/Others/Allocation Sheet.xlsx
@@ -952,6 +952,45 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,43 +1045,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,45 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1496,7 +1496,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2596,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3042,7 +3042,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3113,7 +3113,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3187,7 +3187,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3258,7 +3258,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3944,65 +3944,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4979,14 +4979,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -5004,13 +5004,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5027,15 +5027,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5058,13 +5058,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="78" t="s">
+      <c r="K39" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="82"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5089,7 +5089,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="82"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -5114,7 +5114,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5139,7 +5139,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5164,7 +5164,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5189,7 +5189,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5214,7 +5214,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="45"/>
@@ -5233,7 +5233,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="45"/>
@@ -5252,7 +5252,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5271,47 +5271,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="83"/>
+      <c r="O48" s="58"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="62"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="75"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5331,27 +5331,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="64" t="s">
+      <c r="M52" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5360,9 +5360,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="70"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5375,6 +5375,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5382,18 +5394,6 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5430,73 +5430,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5504,12 +5504,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6613,14 +6613,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="89"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6638,13 +6638,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6661,15 +6661,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="91"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="94"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6692,13 +6692,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K47" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="92"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="95"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6723,7 +6723,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="92"/>
+      <c r="O48" s="95"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6748,7 +6748,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="92"/>
+      <c r="O49" s="95"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6773,7 +6773,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="92"/>
+      <c r="O50" s="95"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6798,7 +6798,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="92"/>
+      <c r="O51" s="95"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6823,7 +6823,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="92"/>
+      <c r="O52" s="95"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6848,7 +6848,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="92"/>
+      <c r="O53" s="95"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6873,7 +6873,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="92"/>
+      <c r="O54" s="95"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6898,7 +6898,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="92"/>
+      <c r="O55" s="95"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6923,7 +6923,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="93"/>
+      <c r="O56" s="96"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6943,49 +6943,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="85" t="s">
+      <c r="N58" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="85"/>
+      <c r="O58" s="98"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6996,15 +6996,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7015,11 +7015,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A1:E1"/>
@@ -7027,19 +7040,6 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="F58:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/December/Others/Allocation Sheet.xlsx
+++ b/December/Others/Allocation Sheet.xlsx
@@ -451,7 +451,7 @@
     <t>Z20</t>
   </si>
   <si>
-    <t>Md Shohel Rana</t>
+    <t>Md Robiul Islam</t>
   </si>
 </sst>
 </file>
@@ -952,6 +952,81 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,80 +1045,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,36 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1496,7 +1496,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2596,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3042,7 +3042,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3113,7 +3113,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3187,7 +3187,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3258,7 +3258,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3944,65 +3944,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4979,14 +4979,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="53"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -5004,13 +5004,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5027,15 +5027,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5058,13 +5058,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="57"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5089,7 +5089,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="57"/>
+      <c r="O40" s="82"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -5114,7 +5114,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="57"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5139,7 +5139,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="57"/>
+      <c r="O42" s="82"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5164,7 +5164,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="57"/>
+      <c r="O43" s="82"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5189,7 +5189,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="57"/>
+      <c r="O44" s="82"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5214,7 +5214,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="57"/>
+      <c r="O45" s="82"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="45"/>
@@ -5233,7 +5233,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="57"/>
+      <c r="O46" s="82"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="45"/>
@@ -5252,7 +5252,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="57"/>
+      <c r="O47" s="82"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5271,47 +5271,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="58"/>
+      <c r="O48" s="83"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="72"/>
-      <c r="O49" s="73"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="60"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="75"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="62"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5331,27 +5331,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="78" t="s">
+      <c r="G52" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="77" t="s">
+      <c r="M52" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5360,9 +5360,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="70"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5375,18 +5375,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5394,6 +5382,18 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5430,73 +5430,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="86" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5504,12 +5504,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6613,14 +6613,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="91" t="s">
+      <c r="I44" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="92"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6638,13 +6638,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6661,15 +6661,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="93" t="s">
+      <c r="I46" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="94"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="91"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6692,13 +6692,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="91" t="s">
+      <c r="K47" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="95"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="92"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6723,7 +6723,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="95"/>
+      <c r="O48" s="92"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6748,7 +6748,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="95"/>
+      <c r="O49" s="92"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6773,7 +6773,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="95"/>
+      <c r="O50" s="92"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6798,7 +6798,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="95"/>
+      <c r="O51" s="92"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6823,7 +6823,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="95"/>
+      <c r="O52" s="92"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6848,7 +6848,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="95"/>
+      <c r="O53" s="92"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6873,7 +6873,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="95"/>
+      <c r="O54" s="92"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6898,7 +6898,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="95"/>
+      <c r="O55" s="92"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6923,7 +6923,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="96"/>
+      <c r="O56" s="93"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6943,49 +6943,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="100" t="s">
+      <c r="F58" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="98" t="s">
+      <c r="N58" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="98"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="99"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
+      <c r="N59" s="86"/>
+      <c r="O59" s="86"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6996,15 +6996,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="86"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7015,11 +7015,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="A59:C60"/>
@@ -7027,19 +7040,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="F58:K59"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/December/Others/Allocation Sheet.xlsx
+++ b/December/Others/Allocation Sheet.xlsx
@@ -451,7 +451,7 @@
     <t>Z20</t>
   </si>
   <si>
-    <t>Md Robiul Islam</t>
+    <t>Md Sohel Rana</t>
   </si>
 </sst>
 </file>
@@ -952,6 +952,45 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,43 +1045,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,45 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1496,7 +1496,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2596,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3042,7 +3042,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3113,7 +3113,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3187,7 +3187,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3258,7 +3258,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3944,65 +3944,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4979,14 +4979,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -5004,13 +5004,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5027,15 +5027,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5058,13 +5058,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="78" t="s">
+      <c r="K39" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="82"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5089,7 +5089,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="82"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -5114,7 +5114,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5139,7 +5139,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5164,7 +5164,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5189,7 +5189,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5214,7 +5214,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="45"/>
@@ -5233,7 +5233,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="45"/>
@@ -5252,7 +5252,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5271,47 +5271,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="83"/>
+      <c r="O48" s="58"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="62"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="75"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5331,27 +5331,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="64" t="s">
+      <c r="M52" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5360,9 +5360,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="70"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5375,6 +5375,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5382,18 +5394,6 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5430,73 +5430,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5504,12 +5504,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6613,14 +6613,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="89"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6638,13 +6638,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6661,15 +6661,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="91"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="94"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6692,13 +6692,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K47" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="92"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="95"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6723,7 +6723,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="92"/>
+      <c r="O48" s="95"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6748,7 +6748,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="92"/>
+      <c r="O49" s="95"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6773,7 +6773,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="92"/>
+      <c r="O50" s="95"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6798,7 +6798,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="92"/>
+      <c r="O51" s="95"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6823,7 +6823,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="92"/>
+      <c r="O52" s="95"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6848,7 +6848,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="92"/>
+      <c r="O53" s="95"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6873,7 +6873,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="92"/>
+      <c r="O54" s="95"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6898,7 +6898,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="92"/>
+      <c r="O55" s="95"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6923,7 +6923,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="93"/>
+      <c r="O56" s="96"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6943,49 +6943,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="85" t="s">
+      <c r="N58" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="85"/>
+      <c r="O58" s="98"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6996,15 +6996,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7015,11 +7015,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A1:E1"/>
@@ -7027,19 +7040,6 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="F58:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/December/Others/Allocation Sheet.xlsx
+++ b/December/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>BL60</t>
   </si>
@@ -451,7 +451,25 @@
     <t>Z20</t>
   </si>
   <si>
-    <t>Md Sohel Rana</t>
+    <t>MD ROBIUL ISLAM</t>
+  </si>
+  <si>
+    <t>i74</t>
+  </si>
+  <si>
+    <t>V102</t>
+  </si>
+  <si>
+    <t>V105</t>
+  </si>
+  <si>
+    <t>L250i</t>
+  </si>
+  <si>
+    <t>Z25</t>
+  </si>
+  <si>
+    <t>Z12</t>
   </si>
 </sst>
 </file>
@@ -952,6 +970,81 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,80 +1063,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,36 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1496,7 +1514,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2614,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3042,7 +3060,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3113,7 +3131,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3187,7 +3205,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3258,7 +3276,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3921,7 +3939,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O53" sqref="A1:O53"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3944,65 +3962,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4355,13 +4373,13 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="44" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J15" s="40">
-        <v>8340</v>
+        <v>5940</v>
       </c>
       <c r="K15" s="46">
-        <v>8990</v>
+        <v>6390</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -4864,13 +4882,13 @@
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="45" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="J32" s="40">
-        <v>12090</v>
+        <v>3610</v>
       </c>
       <c r="K32" s="38">
-        <v>12990</v>
+        <v>3890</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
@@ -4893,13 +4911,13 @@
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="43" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="J33" s="39">
-        <v>12240</v>
+        <v>3890</v>
       </c>
       <c r="K33" s="38">
-        <v>12990</v>
+        <v>4190</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -4979,14 +4997,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="53"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -5004,13 +5022,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5027,15 +5045,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5058,13 +5076,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="57"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5089,17 +5107,17 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="57"/>
+      <c r="O40" s="82"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B41" s="46">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="C41" s="46">
-        <v>1290</v>
+        <v>1250</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -5114,7 +5132,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="57"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5139,7 +5157,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="57"/>
+      <c r="O42" s="82"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5164,7 +5182,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="57"/>
+      <c r="O43" s="82"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5189,7 +5207,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="57"/>
+      <c r="O44" s="82"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5214,12 +5232,18 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="57"/>
+      <c r="O45" s="82"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="38">
+        <v>8310</v>
+      </c>
+      <c r="C46" s="38">
+        <v>8990</v>
+      </c>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -5233,10 +5257,12 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="57"/>
+      <c r="O46" s="82"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="45" t="s">
+        <v>131</v>
+      </c>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -5252,7 +5278,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="57"/>
+      <c r="O47" s="82"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5271,47 +5297,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="58"/>
+      <c r="O48" s="83"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="72"/>
-      <c r="O49" s="73"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="60"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="75"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="62"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5331,27 +5357,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="78" t="s">
+      <c r="G52" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="77" t="s">
+      <c r="M52" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5360,9 +5386,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="70"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5375,18 +5401,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5394,6 +5408,18 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5430,73 +5456,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="86" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5504,12 +5530,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6613,14 +6639,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="91" t="s">
+      <c r="I44" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="92"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6638,13 +6664,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6661,15 +6687,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="93" t="s">
+      <c r="I46" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="94"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="91"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6692,13 +6718,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="91" t="s">
+      <c r="K47" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="95"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="92"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6723,7 +6749,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="95"/>
+      <c r="O48" s="92"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6748,7 +6774,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="95"/>
+      <c r="O49" s="92"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6773,7 +6799,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="95"/>
+      <c r="O50" s="92"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6798,7 +6824,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="95"/>
+      <c r="O51" s="92"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6823,7 +6849,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="95"/>
+      <c r="O52" s="92"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6848,7 +6874,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="95"/>
+      <c r="O53" s="92"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6873,7 +6899,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="95"/>
+      <c r="O54" s="92"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6898,7 +6924,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="95"/>
+      <c r="O55" s="92"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6923,7 +6949,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="96"/>
+      <c r="O56" s="93"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6943,49 +6969,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="100" t="s">
+      <c r="F58" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="98" t="s">
+      <c r="N58" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="98"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="99"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
+      <c r="N59" s="86"/>
+      <c r="O59" s="86"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6996,15 +7022,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="86"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7015,11 +7041,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="A59:C60"/>
@@ -7027,19 +7066,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="F58:K59"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/December/Others/Allocation Sheet.xlsx
+++ b/December/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>BL60</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Z20</t>
   </si>
   <si>
-    <t>MD ROBIUL ISLAM</t>
-  </si>
-  <si>
     <t>i74</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>Z12</t>
+  </si>
+  <si>
+    <t>MD SHOHEL RANA</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -968,6 +968,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,13 +1134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>29158</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>181171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1176,13 +1179,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>194390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1297,13 +1300,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147792</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>42755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>288667</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114587</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1315,7 +1318,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="147792" y="12072830"/>
+          <a:off x="147792" y="12320480"/>
           <a:ext cx="6779800" cy="271857"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="635" cy="292"/>
@@ -3936,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3962,65 +3965,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4202,10 +4205,10 @@
         <v>86</v>
       </c>
       <c r="J9" s="39">
+        <v>5010</v>
+      </c>
+      <c r="K9" s="38">
         <v>5470</v>
-      </c>
-      <c r="K9" s="38">
-        <v>5890</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -4306,27 +4309,27 @@
       <c r="B13" s="37">
         <v>890</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="53">
         <v>970</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="44" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="J13" s="39">
-        <v>6530</v>
-      </c>
-      <c r="K13" s="38">
-        <v>6990</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+        <v>5940</v>
+      </c>
+      <c r="K13" s="53">
+        <v>6390</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="44" t="s">
@@ -4344,13 +4347,13 @@
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="44" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="J14" s="39">
-        <v>6890</v>
+        <v>6030</v>
       </c>
       <c r="K14" s="38">
-        <v>7490</v>
+        <v>6490</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -4373,13 +4376,13 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="40">
-        <v>5940</v>
-      </c>
-      <c r="K15" s="46">
-        <v>6390</v>
+        <v>104</v>
+      </c>
+      <c r="J15" s="39">
+        <v>6890</v>
+      </c>
+      <c r="K15" s="38">
+        <v>7490</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -4401,14 +4404,14 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="43" t="s">
-        <v>31</v>
+      <c r="I16" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="40">
-        <v>9190</v>
+        <v>5750</v>
       </c>
       <c r="K16" s="46">
-        <v>9990</v>
+        <v>6190</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -4430,14 +4433,14 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="44" t="s">
-        <v>71</v>
+      <c r="I17" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="40">
-        <v>5750</v>
+        <v>3560</v>
       </c>
       <c r="K17" s="46">
-        <v>6190</v>
+        <v>3840</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -4460,13 +4463,13 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="39">
-        <v>3560</v>
+        <v>78</v>
+      </c>
+      <c r="J18" s="40">
+        <v>3340</v>
       </c>
       <c r="K18" s="46">
-        <v>3840</v>
+        <v>3590</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -4488,14 +4491,14 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="43" t="s">
-        <v>78</v>
+      <c r="I19" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="J19" s="39">
-        <v>3340</v>
+        <v>4500</v>
       </c>
       <c r="K19" s="46">
-        <v>3590</v>
+        <v>4790</v>
       </c>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
@@ -4518,13 +4521,13 @@
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="43" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="J20" s="39">
-        <v>4500</v>
-      </c>
-      <c r="K20" s="38">
-        <v>4790</v>
+        <v>3710</v>
+      </c>
+      <c r="K20" s="46">
+        <v>3990</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -4547,13 +4550,13 @@
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="43" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="J21" s="39">
-        <v>3710</v>
+        <v>3620</v>
       </c>
       <c r="K21" s="38">
-        <v>3990</v>
+        <v>3890</v>
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -4575,14 +4578,14 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="40">
-        <v>3620</v>
+      <c r="I22" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="39">
+        <v>4080</v>
       </c>
       <c r="K22" s="38">
-        <v>3890</v>
+        <v>4390</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
@@ -4604,14 +4607,14 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="43" t="s">
-        <v>54</v>
+      <c r="I23" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="J23" s="40">
-        <v>4080</v>
+        <v>4220</v>
       </c>
       <c r="K23" s="38">
-        <v>4390</v>
+        <v>4540</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -4634,13 +4637,13 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="43" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="J24" s="40">
-        <v>4220</v>
+        <v>3710</v>
       </c>
       <c r="K24" s="38">
-        <v>4540</v>
+        <v>3990</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -4663,22 +4666,18 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="39">
-        <v>3710</v>
+        <v>76</v>
+      </c>
+      <c r="J25" s="40">
+        <v>4280</v>
       </c>
       <c r="K25" s="38">
-        <v>3990</v>
+        <v>4590</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1">
       <c r="A26" s="44" t="s">
@@ -4687,7 +4686,7 @@
       <c r="B26" s="37">
         <v>1170</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="38">
         <v>1270</v>
       </c>
       <c r="D26" s="38"/>
@@ -4695,22 +4694,22 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="40">
-        <v>4280</v>
+      <c r="I26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="39">
+        <v>5020</v>
       </c>
       <c r="K26" s="38">
-        <v>4590</v>
+        <v>5390</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
       <c r="O26" s="38"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="49"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
       <c r="U26" s="35"/>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
@@ -4729,13 +4728,13 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="39">
-        <v>5020</v>
+        <v>20</v>
+      </c>
+      <c r="J27" s="40">
+        <v>5280</v>
       </c>
       <c r="K27" s="38">
-        <v>5390</v>
+        <v>5690</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
@@ -4761,22 +4760,22 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="43" t="s">
-        <v>20</v>
+      <c r="I28" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="J28" s="39">
-        <v>5280</v>
+        <v>4550</v>
       </c>
       <c r="K28" s="38">
-        <v>5690</v>
+        <v>4890</v>
       </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
       <c r="U28" s="35"/>
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1">
@@ -4795,18 +4794,22 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="43" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J29" s="39">
-        <v>4550</v>
+        <v>5100</v>
       </c>
       <c r="K29" s="38">
-        <v>4890</v>
+        <v>5490</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1">
       <c r="A30" s="44" t="s">
@@ -4824,13 +4827,13 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="43" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J30" s="39">
-        <v>5100</v>
+        <v>5390</v>
       </c>
       <c r="K30" s="38">
-        <v>5490</v>
+        <v>5790</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -4853,13 +4856,13 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="43" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="J31" s="39">
-        <v>5390</v>
+        <v>3610</v>
       </c>
       <c r="K31" s="38">
-        <v>5790</v>
+        <v>3890</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
@@ -4881,14 +4884,14 @@
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="40">
-        <v>3610</v>
+      <c r="J32" s="39">
+        <v>3890</v>
       </c>
       <c r="K32" s="38">
-        <v>3890</v>
+        <v>4190</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
@@ -4910,14 +4913,14 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="39">
-        <v>3890</v>
+      <c r="I33" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="40">
+        <v>7350</v>
       </c>
       <c r="K33" s="38">
-        <v>4190</v>
+        <v>7990</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -4997,15 +5000,19 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="38"/>
+      <c r="I36" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="39">
+        <v>8310</v>
+      </c>
+      <c r="K36" s="38">
+        <v>8990</v>
+      </c>
       <c r="L36" s="38"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="41"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
       <c r="A37" s="44" t="s">
@@ -5022,19 +5029,21 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
+      <c r="I37" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="79"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="41"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="37">
         <v>1200</v>
       </c>
       <c r="C38" s="46">
@@ -5045,15 +5054,13 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5070,18 +5077,14 @@
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
+      <c r="I39" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
       <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
@@ -5099,19 +5102,23 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="38">
-        <v>1000</v>
-      </c>
-      <c r="J40" s="40"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="82"/>
+      <c r="I40" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="83"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="46">
         <v>1160</v>
@@ -5125,14 +5132,14 @@
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="83"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5150,14 +5157,14 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="83"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5175,23 +5182,23 @@
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
       <c r="I43" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="83"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="46">
         <v>1250</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="46">
         <v>1350</v>
       </c>
       <c r="D44" s="38"/>
@@ -5200,23 +5207,23 @@
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
       <c r="I44" s="38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="83"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="36">
         <v>1370</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="36">
         <v>1490</v>
       </c>
       <c r="D45" s="38"/>
@@ -5225,44 +5232,36 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="I45" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="83"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A46" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="38">
-        <v>8310</v>
-      </c>
-      <c r="C46" s="38">
-        <v>8990</v>
-      </c>
+      <c r="A46" s="45"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J46" s="40"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="83"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A47" s="45" t="s">
-        <v>131</v>
-      </c>
+      <c r="A47" s="45"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -5271,155 +5270,174 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="83"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="38"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38">
+        <v>2</v>
+      </c>
+      <c r="J48" s="40"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
       <c r="O48" s="83"/>
     </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="53" t="s">
+    <row r="49" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="84"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="57" t="s">
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
       <c r="H50" s="58"/>
       <c r="I50" s="58"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="62"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="60"/>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="63"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="70"/>
+      <c r="G53" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="P57" s="35"/>
+      <c r="M53" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="P58" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="I37:O37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="O38:O48"/>
-    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="I38:O38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="O39:O49"/>
+    <mergeCell ref="K40:N40"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="G53:I54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5456,73 +5474,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5530,12 +5548,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6639,14 +6657,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="89"/>
+      <c r="J44" s="90"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6664,13 +6682,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6687,15 +6705,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="92"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6718,13 +6736,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K47" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="92"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="93"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6749,7 +6767,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="92"/>
+      <c r="O48" s="93"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6774,7 +6792,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="92"/>
+      <c r="O49" s="93"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6799,7 +6817,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="92"/>
+      <c r="O50" s="93"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6824,7 +6842,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="92"/>
+      <c r="O51" s="93"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6849,7 +6867,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="92"/>
+      <c r="O52" s="93"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6874,7 +6892,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="92"/>
+      <c r="O53" s="93"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6899,7 +6917,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="92"/>
+      <c r="O54" s="93"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6924,7 +6942,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="92"/>
+      <c r="O55" s="93"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6949,7 +6967,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="93"/>
+      <c r="O56" s="94"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6969,49 +6987,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="85" t="s">
+      <c r="N58" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="85"/>
+      <c r="O58" s="86"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7022,15 +7040,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7041,8 +7059,8 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="20">
